--- a/biology/Botanique/Psilostrophe_cooperi/Psilostrophe_cooperi.xlsx
+++ b/biology/Botanique/Psilostrophe_cooperi/Psilostrophe_cooperi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psilostrophe cooperi est une espèce de plantes à fleurs de la famille des Asteraceae.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante forme de petites touffes de tiges feuillées, velues à la base, ramifiées, de 10 à 50 cm de hauteur. Les feuilles, très étroites, mesurent de 2,5 à 6,5 cm de long[1].
-Appareil reproducteur
-La floraison a lieu entre avril et octobre.
-L'inflorescence est un capitule jaune, généralement isolé au sommet de chaque rameau. Chaque capitule mesure entre 1,3 et 2,5 cm de diamètre. Il présente des fleurons ligulés très larges s'achevant par 3 dents peu profondes et entourant un centre constitué de fleurons tubulaires. Les fleurons ligulés sont marcescents et deviennent secs et parcheminés, ce qui a conféré à l'espèce le nom en anglais "paperflower"[1].
-Le fruit est un akène comportant plusieurs écailles pointues à son sommet.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante forme de petites touffes de tiges feuillées, velues à la base, ramifiées, de 10 à 50 cm de hauteur. Les feuilles, très étroites, mesurent de 2,5 à 6,5 cm de long.
 </t>
         </is>
       </c>
@@ -544,13 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce vit dans le sud-ouest des États-Unis et au Mexique. Sa limite nord va de la Californie au Nouveau-Mexique, en passant par l'Utah.
-Elle pousse dans les déserts et plaines arides.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre avril et octobre.
+L'inflorescence est un capitule jaune, généralement isolé au sommet de chaque rameau. Chaque capitule mesure entre 1,3 et 2,5 cm de diamètre. Il présente des fleurons ligulés très larges s'achevant par 3 dents peu profondes et entourant un centre constitué de fleurons tubulaires. Les fleurons ligulés sont marcescents et deviennent secs et parcheminés, ce qui a conféré à l'espèce le nom en anglais "paperflower".
+Le fruit est un akène comportant plusieurs écailles pointues à son sommet.
 </t>
         </is>
       </c>
@@ -576,12 +596,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rôle écologique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme d'autres espèces du genre Psilostrophe, cette espèce est toxique pour les mammifères herbivores et n'est généralement pas pâturée[1].
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit dans le sud-ouest des États-Unis et au Mexique. Sa limite nord va de la Californie au Nouveau-Mexique, en passant par l'Utah.
+Elle pousse dans les déserts et plaines arides.
 </t>
         </is>
       </c>
@@ -607,10 +630,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Rôle écologique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme d'autres espèces du genre Psilostrophe, cette espèce est toxique pour les mammifères herbivores et n'est généralement pas pâturée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Psilostrophe_cooperi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psilostrophe_cooperi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
